--- a/PR2_fields.xlsx
+++ b/PR2_fields.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\daniel.vaulot@gmail.com\Databases\_PR2\pr2database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87C908A1-39C7-46E6-8C1E-D80678DB61C7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3F76A1-025C-4825-92E7-2D090AF95640}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" xr2:uid="{A452520A-281C-4B23-94E8-84C297C054CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -495,33 +495,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -540,10 +527,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -863,8 +850,8 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1373,7 +1360,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>122</v>
       </c>
@@ -1402,39 +1389,39 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
         <v>135</v>
@@ -1442,53 +1429,54 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>